--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,13 +69,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2148,40 +2148,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="8.95703125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.04296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.80078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.80078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="12.3828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="234.15234375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="200.7421875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="10.5546875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.6953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="16.828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.046875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2294" uniqueCount="158">
   <si>
     <t>Property</t>
   </si>
@@ -24,31 +24,31 @@
     <t>ID</t>
   </si>
   <si>
-    <t>PDUuid</t>
+    <t>PDLatest</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>https://kip.rkkp.dk/fhir/StructureDefinition/PDUuid</t>
+    <t>https://kip.rkkp.dk/fhir/StructureDefinition/PDLatest</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>SearchParameterPlanDefinitionUuid</t>
+    <t>SearchParameterPlanDefinitionLatest</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Search Parameter - UUID for PlanDefinitions</t>
+    <t>Search Parameter - Latest for PlanDefinitions</t>
   </si>
   <si>
     <t>Status</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T00:00:00+02:00</t>
+    <t>2025-07-15T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Limit response of PlanDefinitions to match given UUID.</t>
+    <t>Limit response of PlanDefinitions to match given Latest.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -325,6 +325,10 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>Value of extension</t>
   </si>
   <si>
@@ -333,6 +337,39 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>PDUuid</t>
+  </si>
+  <si>
+    <t>https://kip.rkkp.dk/fhir/StructureDefinition/PDUuid</t>
+  </si>
+  <si>
+    <t>SearchParameterPlanDefinitionUuid</t>
+  </si>
+  <si>
+    <t>Search Parameter - UUID for PlanDefinitions</t>
+  </si>
+  <si>
+    <t>2023-07-07T00:00:00+02:00</t>
+  </si>
+  <si>
+    <t>Limit response of PlanDefinitions to match given UUID.</t>
+  </si>
+  <si>
+    <t>QLatest</t>
+  </si>
+  <si>
+    <t>https://kip.rkkp.dk/fhir/StructureDefinition/QLatest</t>
+  </si>
+  <si>
+    <t>SearchParameterQuestionnaireLatest</t>
+  </si>
+  <si>
+    <t>Search Parameter - Latest for Questionnaires</t>
+  </si>
+  <si>
+    <t>Limit response of Questionnaires to match given Latest.</t>
   </si>
   <si>
     <t>QUuid</t>
@@ -592,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B198"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -785,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -793,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -809,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -817,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +876,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32">
@@ -871,7 +908,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -955,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -963,7 +1000,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -979,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
@@ -987,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51">
@@ -1009,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
@@ -1041,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
@@ -1125,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69">
@@ -1133,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70">
@@ -1149,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
@@ -1157,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
@@ -1179,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
@@ -1349,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98">
@@ -1381,7 +1418,7 @@
         <v>23</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
@@ -1465,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="113">
@@ -1473,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114">
@@ -1489,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116">
@@ -1497,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117">
@@ -1519,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120">
@@ -1551,7 +1588,7 @@
         <v>23</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124">
@@ -1635,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
@@ -1643,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
@@ -1659,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138">
@@ -1667,7 +1704,7 @@
         <v>10</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139">
@@ -1689,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="142">
@@ -1721,7 +1758,7 @@
         <v>23</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146">
@@ -1805,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="157">
@@ -1813,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158">
@@ -1829,7 +1866,7 @@
         <v>8</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="160">
@@ -1837,7 +1874,7 @@
         <v>10</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161">
@@ -1859,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164">
@@ -1891,7 +1928,7 @@
         <v>23</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168">
@@ -1975,7 +2012,7 @@
         <v>2</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="179">
@@ -1983,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180">
@@ -1999,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182">
@@ -2007,7 +2044,7 @@
         <v>10</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183">
@@ -2029,7 +2066,7 @@
         <v>15</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="186">
@@ -2061,7 +2098,7 @@
         <v>23</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="190">
@@ -2129,6 +2166,346 @@
         <v>39</v>
       </c>
       <c r="B198" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B203" t="s" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B205" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B207" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B208" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B210" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B214" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B215" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B216" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B217" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B218" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B219" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B220" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B225" t="s" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B227" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B229" t="s" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B230" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B231" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B232" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B233" t="s" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B242" t="s" s="2">
         <v>40</v>
       </c>
     </row>
@@ -2139,7 +2516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2743,13 +3120,13 @@
         <v>22</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -2812,12 +3189,12 @@
         <v>22</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>32</v>
@@ -2849,10 +3226,10 @@
         <v>79</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2920,7 +3297,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>82</v>
@@ -3023,7 +3400,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>88</v>
@@ -3126,7 +3503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>95</v>
@@ -3172,7 +3549,7 @@
       </c>
       <c r="R10" s="2"/>
       <c r="S10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>22</v>
@@ -3231,7 +3608,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>100</v>
@@ -3263,10 +3640,10 @@
         <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -3329,12 +3706,12 @@
         <v>22</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>32</v>
@@ -3366,10 +3743,10 @@
         <v>79</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -3437,7 +3814,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>82</v>
@@ -3540,7 +3917,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>88</v>
@@ -3643,7 +4020,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>95</v>
@@ -3689,7 +4066,7 @@
       </c>
       <c r="R15" s="2"/>
       <c r="S15" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>22</v>
@@ -3748,7 +4125,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>100</v>
@@ -3777,13 +4154,13 @@
         <v>22</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -3846,12 +4223,12 @@
         <v>22</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>32</v>
@@ -3883,7 +4260,7 @@
         <v>79</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>120</v>
@@ -3954,7 +4331,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>82</v>
@@ -4057,7 +4434,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>88</v>
@@ -4160,7 +4537,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>95</v>
@@ -4206,7 +4583,7 @@
       </c>
       <c r="R20" s="2"/>
       <c r="S20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>22</v>
@@ -4265,7 +4642,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>100</v>
@@ -4297,10 +4674,10 @@
         <v>84</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
@@ -4363,7 +4740,7 @@
         <v>22</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -4403,7 +4780,7 @@
         <v>124</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
@@ -4814,10 +5191,10 @@
         <v>84</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -4880,12 +5257,12 @@
         <v>22</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>32</v>
@@ -4917,10 +5294,10 @@
         <v>79</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -4988,7 +5365,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>82</v>
@@ -5091,7 +5468,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>88</v>
@@ -5194,7 +5571,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>95</v>
@@ -5240,7 +5617,7 @@
       </c>
       <c r="R30" s="2"/>
       <c r="S30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>22</v>
@@ -5299,7 +5676,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>100</v>
@@ -5331,10 +5708,10 @@
         <v>84</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -5397,12 +5774,12 @@
         <v>22</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>32</v>
@@ -5434,10 +5811,10 @@
         <v>79</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -5505,7 +5882,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>82</v>
@@ -5608,7 +5985,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>88</v>
@@ -5711,7 +6088,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>95</v>
@@ -5757,7 +6134,7 @@
       </c>
       <c r="R35" s="2"/>
       <c r="S35" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>22</v>
@@ -5816,7 +6193,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>100</v>
@@ -5848,10 +6225,10 @@
         <v>84</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -5914,12 +6291,12 @@
         <v>22</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>32</v>
@@ -5951,10 +6328,10 @@
         <v>79</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -6022,7 +6399,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>82</v>
@@ -6125,7 +6502,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>88</v>
@@ -6228,7 +6605,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>95</v>
@@ -6274,7 +6651,7 @@
       </c>
       <c r="R40" s="2"/>
       <c r="S40" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>22</v>
@@ -6333,7 +6710,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>100</v>
@@ -6365,10 +6742,10 @@
         <v>84</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -6431,12 +6808,12 @@
         <v>22</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>32</v>
@@ -6468,10 +6845,10 @@
         <v>79</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -6539,7 +6916,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>82</v>
@@ -6642,7 +7019,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>88</v>
@@ -6745,7 +7122,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>95</v>
@@ -6791,7 +7168,7 @@
       </c>
       <c r="R45" s="2"/>
       <c r="S45" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>22</v>
@@ -6850,7 +7227,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>100</v>
@@ -6882,10 +7259,10 @@
         <v>84</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -6948,7 +7325,1041 @@
         <v>22</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R47" s="2"/>
+      <c r="S47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R48" s="2"/>
+      <c r="S48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R49" s="2"/>
+      <c r="S49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R50" s="2"/>
+      <c r="S50" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>103</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R52" s="2"/>
+      <c r="S52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R53" s="2"/>
+      <c r="S53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R54" s="2"/>
+      <c r="S54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R55" s="2"/>
+      <c r="S55" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="R56" s="2"/>
+      <c r="S56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/all-profiles.xlsx
+++ b/fhir/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
